--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl20-Ccr6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl20-Ccr6.xlsx
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8243956666666666</v>
+        <v>0.8243956666666667</v>
       </c>
       <c r="H2">
         <v>2.473187</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.6667786666666666</v>
+        <v>0.833274</v>
       </c>
       <c r="N2">
-        <v>2.000336</v>
+        <v>2.499822</v>
       </c>
       <c r="O2">
-        <v>0.4388824944699125</v>
+        <v>0.8541534975292705</v>
       </c>
       <c r="P2">
-        <v>0.4388824944699125</v>
+        <v>0.8541534975292705</v>
       </c>
       <c r="Q2">
-        <v>0.5496894434257777</v>
+        <v>0.686947474746</v>
       </c>
       <c r="R2">
-        <v>4.947204990832</v>
+        <v>6.182527272714</v>
       </c>
       <c r="S2">
-        <v>0.4388824944699125</v>
+        <v>0.8541534975292705</v>
       </c>
       <c r="T2">
-        <v>0.4388824944699125</v>
+        <v>0.8541534975292705</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8243956666666666</v>
+        <v>0.8243956666666667</v>
       </c>
       <c r="H3">
         <v>2.473187</v>
@@ -614,28 +614,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.852486</v>
+        <v>0.1422813333333333</v>
       </c>
       <c r="N3">
-        <v>2.557458</v>
+        <v>0.426844</v>
       </c>
       <c r="O3">
-        <v>0.5611175055300877</v>
+        <v>0.1458465024707295</v>
       </c>
       <c r="P3">
-        <v>0.5611175055300877</v>
+        <v>0.1458465024707295</v>
       </c>
       <c r="Q3">
-        <v>0.702785764294</v>
+        <v>0.1172961146475556</v>
       </c>
       <c r="R3">
-        <v>6.325071878646</v>
+        <v>1.055665031828</v>
       </c>
       <c r="S3">
-        <v>0.5611175055300877</v>
+        <v>0.1458465024707295</v>
       </c>
       <c r="T3">
-        <v>0.5611175055300877</v>
+        <v>0.1458465024707295</v>
       </c>
     </row>
   </sheetData>
